--- a/chuandoan/BTL_CNPM/bin/Debug/Benh.xlsx
+++ b/chuandoan/BTL_CNPM/bin/Debug/Benh.xlsx
@@ -171,9 +171,6 @@
     <t>Đau nửa đầu</t>
   </si>
   <si>
-    <t>Viêm cột sống cổ tử cung</t>
-  </si>
-  <si>
     <t>Tê liệt (xuất huyết não)</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>Chốc lở</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viêm cột sống </t>
   </si>
 </sst>
 </file>
@@ -597,10 +597,14 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -711,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -719,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -727,7 +731,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -735,7 +739,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -743,7 +747,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -751,7 +755,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -759,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -767,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -775,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -783,7 +787,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -791,7 +795,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -799,7 +803,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -807,7 +811,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -815,7 +819,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -823,7 +827,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -831,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -839,7 +843,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -847,7 +851,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -855,7 +859,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -863,7 +867,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -871,7 +875,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -879,7 +883,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -887,7 +891,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -895,7 +899,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -903,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -911,7 +915,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -919,7 +923,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -927,7 +931,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -935,7 +939,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
